--- a/public/sample_student.xlsx
+++ b/public/sample_student.xlsx
@@ -5,36 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/50242d82ed1f2141/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\Desktop\feedback sql copy\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38CC1D4-2205-4D53-825F-7247FCFCA4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E638EC-E001-44F0-AEFE-9DF47C6681E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9319ABDC-659F-47FF-BF29-AAB2BEBBBA35}"/>
+    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{9319ABDC-659F-47FF-BF29-AAB2BEBBBA35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>scholar_number</t>
   </si>
@@ -49,6 +40,9 @@
   </si>
   <si>
     <t>section</t>
+  </si>
+  <si>
+    <t>discipline_id</t>
   </si>
 </sst>
 </file>
@@ -400,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924028B7-349E-4B17-95DF-3E75BAD457B9}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,12 +410,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
